--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T04:00:39+00:00</t>
+    <t>2022-05-27T00:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T00:47:13+00:00</t>
+    <t>2022-06-03T08:32:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T08:32:56+00:00</t>
+    <t>2022-06-03T11:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T11:27:25+00:00</t>
+    <t>2022-06-06T06:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T06:32:48+00:00</t>
+    <t>2022-06-10T04:14:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T04:14:00+00:00</t>
+    <t>2022-06-15T04:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T04:28:17+00:00</t>
+    <t>2022-06-15T04:45:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T04:45:08+00:00</t>
+    <t>2022-06-15T08:13:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T08:13:49+00:00</t>
+    <t>2022-06-15T10:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-15T10:17:15+00:00</t>
+    <t>2022-06-16T12:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-16T12:05:36+00:00</t>
+    <t>2022-06-25T22:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-25T22:09:58+00:00</t>
+    <t>2022-06-27T00:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T00:53:40+00:00</t>
+    <t>2022-06-27T01:00:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T01:00:07+00:00</t>
+    <t>2022-06-27T21:09:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-27T21:09:13+00:00</t>
+    <t>2022-06-30T01:36:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T01:36:20+00:00</t>
+    <t>2022-07-04T15:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:21:33+00:00</t>
+    <t>2022-07-05T01:39:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T01:39:44+00:00</t>
+    <t>2022-07-05T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T07:48:49+00:00</t>
+    <t>2022-07-05T09:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T09:56:47+00:00</t>
+    <t>2022-07-05T11:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T11:03:40+00:00</t>
+    <t>2022-07-05T11:21:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T11:21:31+00:00</t>
+    <t>2022-07-05T11:53:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T11:53:10+00:00</t>
+    <t>2022-07-05T12:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Procedure Performer Role Codes</t>
+    <t>JP Core Procedure Performer Role Codes</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:20:40+00:00</t>
+    <t>2022-07-05T12:37:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:37:35+00:00</t>
+    <t>2022-07-08T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T08:06:50+00:00</t>
+    <t>2022-07-12T21:24:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T21:24:25+00:00</t>
+    <t>2022-07-14T01:49:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T01:49:20+00:00</t>
+    <t>2022-07-14T04:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T04:10:20+00:00</t>
+    <t>2022-07-14T04:18:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T04:18:12+00:00</t>
+    <t>2022-07-14T04:33:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T04:33:17+00:00</t>
+    <t>2022-07-14T07:06:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:06:43+00:00</t>
+    <t>2022-07-14T07:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T07:22:28+00:00</t>
+    <t>2022-07-14T08:18:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:18:43+00:00</t>
+    <t>2022-07-14T08:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:30:52+00:00</t>
+    <t>2022-07-14T08:34:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:34:38+00:00</t>
+    <t>2022-07-14T11:39:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:13+00:00</t>
+    <t>2022-07-14T12:04:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:04:06+00:00</t>
+    <t>2022-07-14T20:50:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T20:50:50+00:00</t>
+    <t>2022-07-14T20:54:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T20:54:56+00:00</t>
+    <t>2022-07-14T21:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T21:19:27+00:00</t>
+    <t>2022-07-14T21:46:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T21:46:04+00:00</t>
+    <t>2022-07-14T22:07:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T22:07:14+00:00</t>
+    <t>2022-07-14T22:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T22:22:01+00:00</t>
+    <t>2022-07-14T22:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T22:40:26+00:00</t>
+    <t>2022-07-14T22:53:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T22:53:39+00:00</t>
+    <t>2022-07-15T01:25:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:25:21+00:00</t>
+    <t>2022-07-15T01:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:36:43+00:00</t>
+    <t>2022-07-15T02:19:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T02:19:36+00:00</t>
+    <t>2022-07-15T05:55:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T05:55:53+00:00</t>
+    <t>2022-07-15T06:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T06:56:47+00:00</t>
+    <t>2022-07-15T09:29:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T09:29:23+00:00</t>
+    <t>2022-07-18T06:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T06:14:23+00:00</t>
+    <t>2022-07-18T10:29:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:29:52+00:00</t>
+    <t>2022-07-19T02:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:11:08+00:00</t>
+    <t>2022-07-19T02:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:41:33+00:00</t>
+    <t>2022-07-19T03:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T03:03:01+00:00</t>
+    <t>2022-07-20T03:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T03:55:17+00:00</t>
+    <t>2022-07-20T05:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T05:59:04+00:00</t>
+    <t>2022-07-20T11:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T11:26:29+00:00</t>
+    <t>2022-07-20T14:25:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T14:25:34+00:00</t>
+    <t>2022-07-20T14:32:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T14:32:15+00:00</t>
+    <t>2022-07-20T15:52:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T15:52:47+00:00</t>
+    <t>2022-07-22T08:06:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T08:06:56+00:00</t>
+    <t>2022-07-22T08:10:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T08:10:06+00:00</t>
+    <t>2022-07-22T23:43:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-22T23:43:37+00:00</t>
+    <t>2022-07-25T10:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T10:03:37+00:00</t>
+    <t>2022-07-26T10:29:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T10:29:08+00:00</t>
+    <t>2022-07-26T11:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T11:00:46+00:00</t>
+    <t>2022-07-26T13:37:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:37:47+00:00</t>
+    <t>2022-07-26T15:08:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T15:08:06+00:00</t>
+    <t>2022-07-26T21:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:33:27+00:00</t>
+    <t>2022-07-27T07:18:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T07:18:31+00:00</t>
+    <t>2022-07-29T07:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T07:47:58+00:00</t>
+    <t>2022-07-29T11:35:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T11:35:01+00:00</t>
+    <t>2022-08-01T00:51:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T00:51:04+00:00</t>
+    <t>2022-08-01T08:30:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T08:30:35+00:00</t>
+    <t>2022-08-01T08:45:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T08:45:03+00:00</t>
+    <t>2022-08-01T08:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T08:55:33+00:00</t>
+    <t>2022-08-01T09:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:36:23+00:00</t>
+    <t>2022-08-01T09:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:40:40+00:00</t>
+    <t>2022-08-01T09:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T09:44:39+00:00</t>
+    <t>2022-08-01T11:03:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:03:16+00:00</t>
+    <t>2022-08-01T11:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:09:19+00:00</t>
+    <t>2022-08-01T11:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:21:55+00:00</t>
+    <t>2022-08-01T11:27:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:27:43+00:00</t>
+    <t>2022-08-01T11:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T11:51:23+00:00</t>
+    <t>2022-08-01T13:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T13:06:52+00:00</t>
+    <t>2022-08-01T14:20:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T14:20:34+00:00</t>
+    <t>2022-08-01T14:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This code system defines the set of codes that can be used to indicate a role of a procedure performer.</t>
+    <t>処置を実施した者の役割（ロール）を示すコード.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T14:34:44+00:00</t>
+    <t>2022-08-01T14:41:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T14:41:03+00:00</t>
+    <t>2022-08-02T00:22:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>処置を実施した者の役割（ロール）を示すコード.</t>
+    <t>処置を実施した者の役割（ロール）を示すコード</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T00:22:21+00:00</t>
+    <t>2022-08-02T00:58:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T00:58:15+00:00</t>
+    <t>2022-08-02T01:03:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T01:03:51+00:00</t>
+    <t>2022-08-02T02:05:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T02:05:44+00:00</t>
+    <t>2022-08-02T03:17:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T03:17:04+00:00</t>
+    <t>2022-08-02T10:24:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T10:24:16+00:00</t>
+    <t>2022-08-02T14:52:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T14:52:15+00:00</t>
+    <t>2022-08-02T14:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T14:57:12+00:00</t>
+    <t>2022-08-02T15:10:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:10:58+00:00</t>
+    <t>2022-08-02T15:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:29:28+00:00</t>
+    <t>2022-08-02T15:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:38:12+00:00</t>
+    <t>2022-08-02T15:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:45:21+00:00</t>
+    <t>2022-08-03T00:42:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T00:42:14+00:00</t>
+    <t>2022-08-03T04:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T04:22:04+00:00</t>
+    <t>2022-08-03T04:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T04:53:18+00:00</t>
+    <t>2022-08-03T05:13:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T05:13:01+00:00</t>
+    <t>2022-08-03T06:56:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T06:56:18+00:00</t>
+    <t>2022-08-03T07:07:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T07:07:21+00:00</t>
+    <t>2022-08-03T07:27:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T07:27:02+00:00</t>
+    <t>2022-08-03T07:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T07:57:27+00:00</t>
+    <t>2022-08-03T08:20:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T08:20:25+00:00</t>
+    <t>2022-08-03T08:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T08:29:29+00:00</t>
+    <t>2022-08-03T08:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T08:45:02+00:00</t>
+    <t>2022-08-03T10:02:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T10:02:20+00:00</t>
+    <t>2022-08-03T10:14:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T10:14:30+00:00</t>
+    <t>2022-08-03T11:08:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T11:08:38+00:00</t>
+    <t>2022-08-03T11:27:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T11:27:08+00:00</t>
+    <t>2022-08-03T13:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:20:18+00:00</t>
+    <t>2022-08-03T14:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T14:33:23+00:00</t>
+    <t>2022-08-03T15:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T15:28:41+00:00</t>
+    <t>2022-08-03T16:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T16:21:55+00:00</t>
+    <t>2022-08-04T00:56:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T00:56:19+00:00</t>
+    <t>2022-08-04T02:05:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T02:05:34+00:00</t>
+    <t>2022-08-04T02:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T02:21:29+00:00</t>
+    <t>2022-08-04T02:24:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T02:24:31+00:00</t>
+    <t>2022-08-04T02:27:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T02:27:35+00:00</t>
+    <t>2022-08-04T05:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T05:11:55+00:00</t>
+    <t>2022-08-04T12:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
+++ b/jpcore-r4/develop/CodeSystem-jp-procedure-performer-role-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T12:50:04+00:00</t>
+    <t>2022-08-04T13:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
